--- a/data/Dados_Conab.xlsx
+++ b/data/Dados_Conab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinicius Meireles\Desktop\Projeto Cofee Predict\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinicius Meireles\Desktop\Projeto Cofee Predict\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBE6E5B-3E44-416C-BD00-0644F7B7CDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5675E528-036E-4E59-9212-290A17C1CC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D6AC8ECC-9E7F-4D0A-9D0D-CC443BA94C30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6AC8ECC-9E7F-4D0A-9D0D-CC443BA94C30}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -103,8 +103,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* \-_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -192,6 +192,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -210,8 +212,6 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,7 +550,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,17 +590,17 @@
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>14690</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>891100</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="4">
         <f>(D2*1000)/E2</f>
         <v>16.485242958141622</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -612,13 +612,13 @@
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>25140</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>1070000</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="4">
         <f t="shared" ref="F3:F49" si="0">(D3*1000)/E3</f>
         <v>23.495327102803738</v>
       </c>
@@ -633,13 +633,13 @@
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>12050</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>977000</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>12.33367451381781</v>
       </c>
@@ -654,13 +654,13 @@
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>18777</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>1001577</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>18.747435294540509</v>
       </c>
@@ -675,13 +675,13 @@
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>15219</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>1033533</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>14.725219223769342</v>
       </c>
@@ -696,13 +696,13 @@
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="8">
         <v>21987</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>1011865</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>21.729183240847345</v>
       </c>
@@ -717,13 +717,13 @@
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>16473</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>1016414</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>16.206978652399513</v>
       </c>
@@ -738,13 +738,13 @@
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>23581</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="8">
         <v>1048172</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>22.497261899764542</v>
       </c>
@@ -759,13 +759,13 @@
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>19880</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>1000731</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>19.865478335336867</v>
       </c>
@@ -780,13 +780,13 @@
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>25155</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="8">
         <v>1006719</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>24.987111597178558</v>
       </c>
@@ -801,13 +801,13 @@
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <v>22181</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="8">
         <v>1000869</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>22.161741446682832</v>
       </c>
@@ -822,13 +822,13 @@
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>26944</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="8">
         <v>1028425</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>26.199285314923305</v>
       </c>
@@ -843,13 +843,13 @@
       <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>27660</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="8">
         <v>1037797</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>26.652611252489649</v>
       </c>
@@ -864,13 +864,13 @@
       <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>22644.1</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="7">
         <v>995079</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>22.756082682882464</v>
       </c>
@@ -885,13 +885,13 @@
       <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <v>22302.9</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <v>968872</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="4">
         <f t="shared" si="0"/>
         <v>23.019449421595422</v>
       </c>
@@ -906,13 +906,13 @@
       <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
         <v>30724.1</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <v>1009481</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="4">
         <f t="shared" si="0"/>
         <v>30.435540639199747</v>
       </c>
@@ -927,13 +927,13 @@
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
         <v>24445.3</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="7">
         <v>980762</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="4">
         <f t="shared" si="0"/>
         <v>24.924803367177766</v>
       </c>
@@ -948,13 +948,13 @@
       <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="6">
         <v>33360.400000000001</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="7">
         <v>1008595</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="4">
         <f t="shared" si="0"/>
         <v>33.076110827438171</v>
       </c>
@@ -969,13 +969,13 @@
       <c r="C20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
         <v>24553.61</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="7">
         <v>983726.00000000012</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="4">
         <f t="shared" si="0"/>
         <v>24.959805880905858</v>
       </c>
@@ -990,13 +990,13 @@
       <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="6">
         <v>34647.112419057565</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="7">
         <v>1041392.3627905673</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="4">
         <f t="shared" si="0"/>
         <v>33.269988965749107</v>
       </c>
@@ -1011,13 +1011,13 @@
       <c r="C22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="6">
         <v>22142.300000000003</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="7">
         <v>979449</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="4">
         <f t="shared" si="0"/>
         <v>22.60689428443952</v>
       </c>
@@ -1032,13 +1032,13 @@
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="6">
         <v>21960.100000000002</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="7">
         <v>1017984</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="4">
         <f t="shared" si="0"/>
         <v>21.572146517037599</v>
       </c>
@@ -1053,13 +1053,13 @@
       <c r="C24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="6">
         <v>29005.899999999998</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="7">
         <v>1082447</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="4">
         <f t="shared" si="0"/>
         <v>26.796600664974818</v>
       </c>
@@ -1074,13 +1074,13 @@
       <c r="C25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="9">
         <v>28058.6</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="10">
         <v>1113855</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="4">
         <f t="shared" si="0"/>
         <v>25.190531981272247</v>
       </c>
@@ -1095,13 +1095,13 @@
       <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="6">
         <v>7550</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="6">
         <v>510930</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="4">
         <f>(D26*1000)/E26</f>
         <v>14.776975319515394</v>
       </c>
@@ -1116,13 +1116,13 @@
       <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="6">
         <v>9325</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="7">
         <v>529000</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="4">
         <f t="shared" si="0"/>
         <v>17.627599243856334</v>
       </c>
@@ -1137,13 +1137,13 @@
       <c r="C28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="6">
         <v>6610</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="7">
         <v>521000</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="4">
         <f t="shared" si="0"/>
         <v>12.687140115163148</v>
       </c>
@@ -1158,13 +1158,13 @@
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="6">
         <v>6795</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="7">
         <v>507786</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="4">
         <f t="shared" si="0"/>
         <v>13.381621391688626</v>
       </c>
@@ -1179,13 +1179,13 @@
       <c r="C30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="6">
         <v>8070</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="6">
         <v>493958</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="4">
         <f t="shared" si="0"/>
         <v>16.337421400200018</v>
       </c>
@@ -1200,13 +1200,13 @@
       <c r="C31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="8">
         <v>9009</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="11">
         <v>473256</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="4">
         <f t="shared" si="0"/>
         <v>19.036208732694355</v>
       </c>
@@ -1221,13 +1221,13 @@
       <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="6">
         <v>10306</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="11">
         <v>517729</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="4">
         <f t="shared" si="0"/>
         <v>19.906167126044707</v>
       </c>
@@ -1242,13 +1242,13 @@
       <c r="C33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="6">
         <v>10230</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="11">
         <v>489592</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="4">
         <f t="shared" si="0"/>
         <v>20.89494926387686</v>
       </c>
@@ -1263,13 +1263,13 @@
       <c r="C34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="6">
         <v>10205</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="11">
         <v>479798</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="4">
         <f t="shared" si="0"/>
         <v>21.269367525500314</v>
       </c>
@@ -1284,13 +1284,13 @@
       <c r="C35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="6">
         <v>10147</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="7">
         <v>463307</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="4">
         <f t="shared" si="0"/>
         <v>21.901244747003606</v>
       </c>
@@ -1305,13 +1305,13 @@
       <c r="C36" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="6">
         <v>11573</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="7">
         <v>452527</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="4">
         <f t="shared" si="0"/>
         <v>25.574164635480315</v>
       </c>
@@ -1326,13 +1326,13 @@
       <c r="C37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="6">
         <v>12502</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="7">
         <v>450128</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="4">
         <f t="shared" si="0"/>
         <v>27.774321970639463</v>
       </c>
@@ -1347,13 +1347,13 @@
       <c r="C38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="6">
         <v>11697</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="7">
         <v>453167</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="4">
         <f t="shared" si="0"/>
         <v>25.811676490123951</v>
       </c>
@@ -1368,13 +1368,13 @@
       <c r="C39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="6">
         <v>12805.7</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="7">
         <v>433242</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="4">
         <f t="shared" si="0"/>
         <v>29.557845268925913</v>
       </c>
@@ -1389,13 +1389,13 @@
       <c r="C40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="6">
         <v>10700</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="7">
         <v>433242</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="4">
         <f t="shared" si="0"/>
         <v>24.697513168160057</v>
       </c>
@@ -1410,13 +1410,13 @@
       <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="6">
         <v>8967.4</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="7">
         <v>410057</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="4">
         <f t="shared" si="0"/>
         <v>21.868667038972632</v>
       </c>
@@ -1431,13 +1431,13 @@
       <c r="C42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="6">
         <v>8865</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="7">
         <v>385538</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="4">
         <f t="shared" si="0"/>
         <v>22.993842370920635</v>
       </c>
@@ -1452,13 +1452,13 @@
       <c r="C43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="6">
         <v>13739</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="7">
         <v>387926</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="4">
         <f t="shared" si="0"/>
         <v>35.416548516985195</v>
       </c>
@@ -1473,13 +1473,13 @@
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="6">
         <v>13498</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="7">
         <v>393902</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="4">
         <f t="shared" si="0"/>
         <v>34.267406613827802</v>
       </c>
@@ -1494,13 +1494,13 @@
       <c r="C45" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="6">
         <v>13958</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="7">
         <v>400287</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="4">
         <f t="shared" si="0"/>
         <v>34.869980788784048</v>
       </c>
@@ -1515,13 +1515,13 @@
       <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="6">
         <v>14166</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="7">
         <v>400442</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="4">
         <f t="shared" si="0"/>
         <v>35.375909619870043</v>
       </c>
@@ -1536,13 +1536,13 @@
       <c r="C47" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="6">
         <v>16721</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="7">
         <v>402479</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="4">
         <f t="shared" si="0"/>
         <v>41.545024709363716</v>
       </c>
@@ -1557,13 +1557,13 @@
       <c r="C48" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="6">
         <v>13014</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="7">
         <v>392760</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="4">
         <f t="shared" si="0"/>
         <v>33.134738771769022</v>
       </c>
@@ -1578,13 +1578,13 @@
       <c r="C49" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="9">
         <v>13997</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="10">
         <v>391351</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="4">
         <f t="shared" si="0"/>
         <v>35.765847027348848</v>
       </c>
